--- a/PRECIOS MAXIMOS SEPT.xlsx
+++ b/PRECIOS MAXIMOS SEPT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="7770" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="178">
   <si>
     <t>DETALLE</t>
   </si>
@@ -898,7 +898,17 @@
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1888,7 +1898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
@@ -1974,7 +1984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -3999,7 +4009,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6405,13 +6415,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6873,7 +6883,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F18">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8361,7 +8371,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F72">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8371,22 +8381,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1048576"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -8396,23 +8407,26 @@
       <c r="C1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>55</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -8432,14 +8446,17 @@
         <v>5500</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G33" si="0">F2-E2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="29" t="s">
+        <v>5500</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H33" si="0">G2-F2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -8450,23 +8467,26 @@
         <v>57</v>
       </c>
       <c r="D3" s="15">
+        <v>17800</v>
+      </c>
+      <c r="E3" s="15">
         <v>17500</v>
       </c>
-      <c r="E3" s="15">
+      <c r="F3" s="15">
         <v>14000</v>
       </c>
-      <c r="F3" s="15">
+      <c r="G3" s="15">
         <v>17800</v>
       </c>
-      <c r="G3" s="1">
-        <f>F3-E3</f>
+      <c r="H3" s="1">
+        <f>G3-F3</f>
         <v>3800</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="I3" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -8477,23 +8497,26 @@
         <v>57</v>
       </c>
       <c r="D4" s="15">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="E4" s="15">
         <v>13000</v>
       </c>
       <c r="F4" s="15">
+        <v>13000</v>
+      </c>
+      <c r="G4" s="15">
         <v>16500</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="I4" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -8504,23 +8527,26 @@
         <v>57</v>
       </c>
       <c r="D5" s="15">
+        <v>17800</v>
+      </c>
+      <c r="E5" s="15">
         <v>16000</v>
       </c>
-      <c r="E5" s="15">
+      <c r="F5" s="15">
         <v>14000</v>
       </c>
-      <c r="F5" s="15">
+      <c r="G5" s="15">
         <v>17800</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>3800</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="I5" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -8534,20 +8560,23 @@
         <v>7000</v>
       </c>
       <c r="E6" s="15">
+        <v>7000</v>
+      </c>
+      <c r="F6" s="15">
         <v>5500</v>
       </c>
-      <c r="F6" s="15">
+      <c r="G6" s="15">
         <v>7000</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="H6" s="26">
+      <c r="I6" s="26">
         <v>6500</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -8558,23 +8587,26 @@
         <v>57</v>
       </c>
       <c r="D7" s="15">
+        <v>850</v>
+      </c>
+      <c r="E7" s="15">
         <v>1000</v>
-      </c>
-      <c r="E7" s="15">
-        <v>850</v>
       </c>
       <c r="F7" s="15">
         <v>850</v>
       </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="26">
+      <c r="G7" s="15">
         <v>850</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="26">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -8585,23 +8617,26 @@
         <v>65</v>
       </c>
       <c r="D8" s="15">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="15">
         <v>3500</v>
       </c>
-      <c r="E8" s="15">
-        <v>3000</v>
-      </c>
       <c r="F8" s="15">
         <v>3000</v>
       </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="26">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="15">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="26">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -8612,23 +8647,26 @@
         <v>65</v>
       </c>
       <c r="D9" s="15">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="15">
         <v>3500</v>
       </c>
-      <c r="E9" s="15">
-        <v>3000</v>
-      </c>
       <c r="F9" s="15">
         <v>3000</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="26">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="15">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="26">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -8639,23 +8677,26 @@
         <v>65</v>
       </c>
       <c r="D10" s="15">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="15">
         <v>3500</v>
       </c>
-      <c r="E10" s="15">
-        <v>3000</v>
-      </c>
       <c r="F10" s="15">
         <v>3000</v>
       </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="26">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="15">
+        <v>3000</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -8666,23 +8707,26 @@
         <v>69</v>
       </c>
       <c r="D11" s="15">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E11" s="15">
         <v>0</v>
       </c>
       <c r="F11" s="15">
-        <v>3000</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="H11" s="26">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>3000</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="I11" s="26">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -8696,20 +8740,23 @@
         <v>2500</v>
       </c>
       <c r="E12" s="15">
+        <v>2500</v>
+      </c>
+      <c r="F12" s="15">
         <v>2250</v>
       </c>
-      <c r="F12" s="15">
+      <c r="G12" s="15">
         <v>2500</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="H12" s="26">
+      <c r="I12" s="26">
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -8728,15 +8775,18 @@
       <c r="F13" s="15">
         <v>1000</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="26">
+      <c r="G13" s="15">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -8750,20 +8800,23 @@
         <v>2500</v>
       </c>
       <c r="E14" s="15">
+        <v>2500</v>
+      </c>
+      <c r="F14" s="15">
         <v>2000</v>
       </c>
-      <c r="F14" s="15">
+      <c r="G14" s="15">
         <v>2500</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="H14" s="26">
+      <c r="I14" s="26">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -8782,15 +8835,18 @@
       <c r="F15" s="15">
         <v>3500</v>
       </c>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="26">
+      <c r="G15" s="15">
         <v>3500</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="26">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -8804,20 +8860,23 @@
         <v>2200</v>
       </c>
       <c r="E16" s="15">
+        <v>2200</v>
+      </c>
+      <c r="F16" s="15">
         <v>2000</v>
       </c>
-      <c r="F16" s="15">
+      <c r="G16" s="15">
         <v>2200</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="H16" s="26">
+      <c r="I16" s="26">
         <v>2200</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -8836,15 +8895,18 @@
       <c r="F17" s="15">
         <v>1200</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="26">
+      <c r="G17" s="15">
         <v>1200</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="26">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -8863,15 +8925,18 @@
       <c r="F18" s="15">
         <v>1800</v>
       </c>
-      <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="26">
+      <c r="G18" s="15">
         <v>1800</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="26">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -8882,23 +8947,26 @@
         <v>57</v>
       </c>
       <c r="D19" s="15">
+        <v>3800</v>
+      </c>
+      <c r="E19" s="15">
         <v>3500</v>
       </c>
-      <c r="E19" s="15">
+      <c r="F19" s="15">
         <v>2500</v>
       </c>
-      <c r="F19" s="15">
+      <c r="G19" s="15">
         <v>3800</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="H19" s="26">
+      <c r="I19" s="26">
         <v>3500</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -8917,15 +8985,18 @@
       <c r="F20" s="15">
         <v>1600</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="26">
+      <c r="G20" s="15">
         <v>1600</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="26">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -8936,23 +9007,26 @@
         <v>82</v>
       </c>
       <c r="D21" s="15">
+        <v>21800</v>
+      </c>
+      <c r="E21" s="15">
         <v>21000</v>
       </c>
-      <c r="E21" s="15">
+      <c r="F21" s="15">
         <v>4000</v>
       </c>
-      <c r="F21" s="15">
+      <c r="G21" s="15">
         <v>21800</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <f t="shared" si="0"/>
         <v>17800</v>
       </c>
-      <c r="H21" s="26">
+      <c r="I21" s="26">
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -8963,23 +9037,26 @@
         <v>57</v>
       </c>
       <c r="D22" s="15">
+        <v>4550</v>
+      </c>
+      <c r="E22" s="15">
         <v>4500</v>
       </c>
-      <c r="E22" s="15">
+      <c r="F22" s="15">
         <v>3500</v>
       </c>
-      <c r="F22" s="15">
+      <c r="G22" s="15">
         <v>4550</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="H22" s="26">
+      <c r="I22" s="26">
         <v>4500</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -8993,20 +9070,23 @@
         <v>2800</v>
       </c>
       <c r="E23" s="15">
+        <v>2800</v>
+      </c>
+      <c r="F23" s="15">
         <v>2700</v>
       </c>
-      <c r="F23" s="15">
+      <c r="G23" s="15">
         <v>2800</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H23" s="26">
+      <c r="I23" s="26">
         <v>2800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -9025,15 +9105,18 @@
       <c r="F24" s="15">
         <v>4800</v>
       </c>
-      <c r="G24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="26">
+      <c r="G24" s="15">
+        <v>4800</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="26">
         <v>4500</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -9052,15 +9135,18 @@
       <c r="F25" s="15">
         <v>3000</v>
       </c>
-      <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="26">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="15">
+        <v>3000</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="26">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -9079,15 +9165,18 @@
       <c r="F26" s="15">
         <v>3000</v>
       </c>
-      <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="26">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="15">
+        <v>3000</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="26">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -9106,15 +9195,18 @@
       <c r="F27" s="15">
         <v>1350</v>
       </c>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="26">
+      <c r="G27" s="15">
         <v>1350</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="26">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -9133,15 +9225,18 @@
       <c r="F28" s="15">
         <v>2000</v>
       </c>
-      <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="30" t="s">
+      <c r="G28" s="15">
+        <v>2000</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -9155,20 +9250,23 @@
         <v>2250</v>
       </c>
       <c r="E29" s="15">
+        <v>2250</v>
+      </c>
+      <c r="F29" s="15">
         <v>2200</v>
       </c>
-      <c r="F29" s="15">
+      <c r="G29" s="15">
         <v>2250</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H29" s="26">
+      <c r="I29" s="26">
         <v>2250</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -9187,15 +9285,18 @@
       <c r="F30" s="15">
         <v>1200</v>
       </c>
-      <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="26">
+      <c r="G30" s="15">
         <v>1200</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="26">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -9209,20 +9310,23 @@
         <v>3500</v>
       </c>
       <c r="E31" s="15">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="F31" s="15">
+        <v>3000</v>
+      </c>
+      <c r="G31" s="15">
         <v>3500</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="H31" s="26">
+      <c r="I31" s="26">
         <v>3500</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -9236,20 +9340,23 @@
         <v>4700</v>
       </c>
       <c r="E32" s="15">
+        <v>4700</v>
+      </c>
+      <c r="F32" s="15">
         <v>3300</v>
       </c>
-      <c r="F32" s="15">
+      <c r="G32" s="15">
         <v>4700</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="H32" s="26">
+      <c r="I32" s="26">
         <v>4000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -9263,20 +9370,23 @@
         <v>4000</v>
       </c>
       <c r="E33" s="15">
+        <v>4000</v>
+      </c>
+      <c r="F33" s="15">
         <v>3800</v>
       </c>
-      <c r="F33" s="15">
+      <c r="G33" s="15">
         <v>4000</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="H33" s="26">
+      <c r="I33" s="26">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -9295,15 +9405,18 @@
       <c r="F34" s="15">
         <v>3200</v>
       </c>
-      <c r="G34" s="1">
-        <f t="shared" ref="G34:G65" si="1">F34-E34</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="26">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="15">
+        <v>3200</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" ref="H34:H65" si="1">G34-F34</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="26">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -9314,23 +9427,26 @@
         <v>69</v>
       </c>
       <c r="D35" s="15">
-        <v>16000</v>
+        <v>19150</v>
       </c>
       <c r="E35" s="15">
         <v>16000</v>
       </c>
       <c r="F35" s="15">
+        <v>16000</v>
+      </c>
+      <c r="G35" s="15">
         <v>19150</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <f t="shared" si="1"/>
         <v>3150</v>
       </c>
-      <c r="H35" s="26">
+      <c r="I35" s="26">
         <v>17000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -9341,23 +9457,26 @@
         <v>69</v>
       </c>
       <c r="D36" s="15">
-        <v>16000</v>
+        <v>19150</v>
       </c>
       <c r="E36" s="15">
         <v>16000</v>
       </c>
       <c r="F36" s="15">
+        <v>16000</v>
+      </c>
+      <c r="G36" s="15">
         <v>19150</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <f t="shared" si="1"/>
         <v>3150</v>
       </c>
-      <c r="H36" s="26">
+      <c r="I36" s="26">
         <v>17000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -9368,23 +9487,26 @@
         <v>69</v>
       </c>
       <c r="D37" s="15">
-        <v>16000</v>
+        <v>19150</v>
       </c>
       <c r="E37" s="15">
         <v>16000</v>
       </c>
       <c r="F37" s="15">
+        <v>16000</v>
+      </c>
+      <c r="G37" s="15">
         <v>19150</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <f t="shared" si="1"/>
         <v>3150</v>
       </c>
-      <c r="H37" s="26">
+      <c r="I37" s="26">
         <v>17000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -9398,20 +9520,23 @@
         <v>1950</v>
       </c>
       <c r="E38" s="15">
+        <v>1950</v>
+      </c>
+      <c r="F38" s="15">
         <v>1900</v>
       </c>
-      <c r="F38" s="15">
+      <c r="G38" s="15">
         <v>1950</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H38" s="26">
+      <c r="I38" s="26">
         <v>1950</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -9422,23 +9547,26 @@
         <v>57</v>
       </c>
       <c r="D39" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="15">
         <v>2500</v>
-      </c>
-      <c r="E39" s="15">
-        <v>2000</v>
       </c>
       <c r="F39" s="15">
         <v>2000</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="15">
+        <v>2000</v>
+      </c>
+      <c r="H39" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H39" s="26">
+      <c r="I39" s="26">
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -9457,15 +9585,18 @@
       <c r="F40" s="15">
         <v>1400</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H40" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="30" t="s">
+      <c r="I40" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -9479,20 +9610,23 @@
         <v>2800</v>
       </c>
       <c r="E41" s="15">
+        <v>2800</v>
+      </c>
+      <c r="F41" s="15">
         <v>2600</v>
       </c>
-      <c r="F41" s="15">
+      <c r="G41" s="15">
         <v>2800</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H41" s="26">
+      <c r="I41" s="26">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -9506,20 +9640,23 @@
         <v>2800</v>
       </c>
       <c r="E42" s="15">
+        <v>2800</v>
+      </c>
+      <c r="F42" s="15">
         <v>2600</v>
       </c>
-      <c r="F42" s="15">
+      <c r="G42" s="15">
         <v>2800</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H42" s="26">
+      <c r="I42" s="26">
         <v>2800</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -9538,15 +9675,18 @@
       <c r="F43" s="15">
         <v>9000</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="15">
+        <v>9000</v>
+      </c>
+      <c r="H43" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H43" s="26">
+      <c r="I43" s="26">
         <v>8400</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -9557,23 +9697,26 @@
         <v>57</v>
       </c>
       <c r="D44" s="15">
-        <v>0</v>
+        <v>3550</v>
       </c>
       <c r="E44" s="15">
+        <v>0</v>
+      </c>
+      <c r="F44" s="15">
         <v>3500</v>
       </c>
-      <c r="F44" s="15">
+      <c r="G44" s="15">
         <v>3550</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H44" s="26">
+      <c r="I44" s="26">
         <v>3500</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -9587,20 +9730,23 @@
         <v>3350</v>
       </c>
       <c r="E45" s="15">
+        <v>3350</v>
+      </c>
+      <c r="F45" s="15">
         <v>3100</v>
       </c>
-      <c r="F45" s="15">
+      <c r="G45" s="15">
         <v>3350</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="H45" s="26">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I45" s="26">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -9619,15 +9765,18 @@
       <c r="F46" s="15">
         <v>3000</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="15">
+        <v>3000</v>
+      </c>
+      <c r="H46" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H46" s="26">
+      <c r="I46" s="26">
         <v>2800</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -9640,21 +9789,24 @@
       <c r="D47" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="15">
-        <v>0</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G47" s="1" t="e">
+      <c r="E47" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H47" s="30" t="s">
+      <c r="I47" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -9667,21 +9819,24 @@
       <c r="D48" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E48" s="15">
-        <v>0</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G48" s="1" t="e">
+      <c r="E48" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="15">
+        <v>0</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="30" t="s">
+      <c r="I48" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -9694,21 +9849,24 @@
       <c r="D49" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="15">
-        <v>0</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G49" s="1" t="e">
+      <c r="E49" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="I49" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -9721,21 +9879,24 @@
       <c r="D50" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E50" s="15">
-        <v>0</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G50" s="1" t="e">
+      <c r="E50" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F50" s="15">
+        <v>0</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H50" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H50" s="30" t="s">
+      <c r="I50" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -9748,21 +9909,24 @@
       <c r="D51" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E51" s="15">
-        <v>0</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G51" s="1" t="e">
+      <c r="E51" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="15">
+        <v>0</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H51" s="30" t="s">
+      <c r="I51" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -9775,21 +9939,24 @@
       <c r="D52" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="15">
-        <v>0</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G52" s="1" t="e">
+      <c r="E52" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" s="15">
+        <v>0</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H52" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H52" s="30" t="s">
+      <c r="I52" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -9802,21 +9969,24 @@
       <c r="D53" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E53" s="15">
-        <v>0</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G53" s="1" t="e">
+      <c r="E53" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="15">
+        <v>0</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H53" s="30" t="s">
+      <c r="I53" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -9829,21 +9999,24 @@
       <c r="D54" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E54" s="15">
-        <v>0</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G54" s="1" t="e">
+      <c r="E54" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" s="15">
+        <v>0</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H54" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H54" s="30" t="s">
+      <c r="I54" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -9856,21 +10029,24 @@
       <c r="D55" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E55" s="15">
-        <v>0</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G55" s="1" t="e">
+      <c r="E55" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" s="15">
+        <v>0</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H55" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H55" s="30" t="s">
+      <c r="I55" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -9883,21 +10059,24 @@
       <c r="D56" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E56" s="15">
-        <v>0</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G56" s="1" t="e">
+      <c r="E56" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="15">
+        <v>0</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H56" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H56" s="30" t="s">
+      <c r="I56" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -9910,21 +10089,24 @@
       <c r="D57" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E57" s="15">
-        <v>0</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G57" s="1" t="e">
+      <c r="E57" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" s="15">
+        <v>0</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H57" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H57" s="30" t="s">
+      <c r="I57" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -9937,21 +10119,24 @@
       <c r="D58" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E58" s="15">
-        <v>0</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G58" s="1" t="e">
+      <c r="E58" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" s="15">
+        <v>0</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H58" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="30" t="s">
+      <c r="I58" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -9964,21 +10149,24 @@
       <c r="D59" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E59" s="15">
-        <v>0</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G59" s="1" t="e">
+      <c r="E59" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" s="15">
+        <v>0</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H59" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="30" t="s">
+      <c r="I59" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -9991,21 +10179,24 @@
       <c r="D60" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E60" s="15">
-        <v>0</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G60" s="1" t="e">
+      <c r="E60" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="15">
+        <v>0</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H60" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H60" s="30" t="s">
+      <c r="I60" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -10019,20 +10210,23 @@
         <v>4100</v>
       </c>
       <c r="E61" s="15">
+        <v>4100</v>
+      </c>
+      <c r="F61" s="15">
         <v>3800</v>
       </c>
-      <c r="F61" s="15">
+      <c r="G61" s="15">
         <v>4100</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="H61" s="26">
+      <c r="I61" s="26">
         <v>3700</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -10045,21 +10239,24 @@
       <c r="D62" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E62" s="15">
-        <v>0</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G62" s="1" t="e">
+      <c r="E62" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62" s="15">
+        <v>0</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H62" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H62" s="30" t="s">
+      <c r="I62" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -10072,17 +10269,20 @@
       <c r="D63" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G63" s="1" t="e">
+      <c r="E63" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H63" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H63" s="30"/>
-    </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I63" s="30"/>
+    </row>
+    <row r="64" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -10101,15 +10301,18 @@
       <c r="F64" s="15">
         <v>2000</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="15">
+        <v>2000</v>
+      </c>
+      <c r="H64" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H64" s="26">
+      <c r="I64" s="26">
         <v>2000</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -10122,17 +10325,20 @@
       <c r="D65" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G65" s="1" t="e">
+      <c r="E65" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H65" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H65" s="30"/>
-    </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I65" s="30"/>
+    </row>
+    <row r="66" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -10145,17 +10351,20 @@
       <c r="D66" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G66" s="1" t="e">
-        <f t="shared" ref="G66:G70" si="2">F66-E66</f>
+      <c r="E66" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H66" s="1" t="e">
+        <f t="shared" ref="H66:H70" si="2">G66-F66</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H66" s="30"/>
-    </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I66" s="30"/>
+    </row>
+    <row r="67" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -10169,20 +10378,23 @@
         <v>12500</v>
       </c>
       <c r="E67" s="15">
+        <v>12500</v>
+      </c>
+      <c r="F67" s="15">
         <v>10000</v>
       </c>
-      <c r="F67" s="15">
+      <c r="G67" s="15">
         <v>12500</v>
       </c>
-      <c r="G67" s="1">
+      <c r="H67" s="1">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="H67" s="26">
+      <c r="I67" s="26">
         <v>10000</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -10195,17 +10407,20 @@
       <c r="D68" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G68" s="1" t="e">
+      <c r="E68" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H68" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H68" s="26"/>
-    </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I68" s="26"/>
+    </row>
+    <row r="69" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -10218,17 +10433,20 @@
       <c r="D69" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G69" s="1" t="e">
+      <c r="E69" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H69" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H69" s="26"/>
-    </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I69" s="26"/>
+    </row>
+    <row r="70" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -10247,15 +10465,18 @@
       <c r="F70" s="15">
         <v>2700</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70" s="15">
+        <v>2700</v>
+      </c>
+      <c r="H70" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H70" s="26">
+      <c r="I70" s="26">
         <v>2700</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -10268,12 +10489,15 @@
       <c r="D71" s="15">
         <v>2100</v>
       </c>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15">
+      <c r="E71" s="15">
         <v>2100</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="15"/>
+      <c r="G71" s="15">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -10286,19 +10510,27 @@
       <c r="D72" s="15">
         <v>2500</v>
       </c>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15">
+      <c r="E72" s="15">
         <v>2500</v>
       </c>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15">
+        <v>2500</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F71:F1048576 G1:G70">
+  <conditionalFormatting sqref="G71:G1048576 H1:H70">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:E1048576">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:D1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11331,7 +11563,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D71:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11654,7 +11886,7 @@
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
